--- a/pred_ohlcv/54_21/2019-10-29 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MIX ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-641167.1115082441</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-613701.1389082441</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-147257.9485082441</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-67189.94750824406</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-97199.94750824406</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-97199.94750824406</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2817154.58022478</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>7338939.857177305</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>8467138.483405611</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6448126.968062473</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4409065.514062474</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4711884.358062473</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1921637.588062473</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2112334.187162473</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2710133.657762473</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2008338.955362472</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1841432.983862472</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>895773.7611624724</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-13796107.49870956</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-13796813.76300956</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-13757825.11413041</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-13784253.85053041</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-14178412.15333041</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-14069907.67393041</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-14069797.67393041</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-14073734.09493041</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-14073624.09493041</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MIX ohlcv.xlsx
@@ -3330,7 +3330,7 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2713593.215591756</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2817154.58022478</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2633159.21942478</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>7338939.857177305</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>8467138.483405611</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6448126.968062473</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4409065.514062474</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4711884.358062473</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>4938872.702262473</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1921637.588062473</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2112334.187162473</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2112334.187162473</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2710133.657762473</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2335699.613462472</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2041741.931562472</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2008338.955362472</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1841432.983862472</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1616034.438262472</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>895773.7611624724</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-13796122.82780956</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-13796107.49870956</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-13796813.76300956</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-13796813.76300956</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-13796813.76300956</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-13796703.76300956</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-13796703.76300956</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-13785099.7525887</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-13785099.7525887</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-13785099.7525887</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-13749464.73120956</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-13749464.73120956</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-13749484.73120956</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-13749374.73120956</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-13773184.12523041</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-13746521.62523041</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-13757825.11413041</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-13784253.85053041</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-14178412.15333041</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-14069907.67393041</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-14069797.67393041</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-14069897.67393041</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-14073734.09493041</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-14073624.09493041</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
